--- a/backend/fixedFiles/customer_probabilities_and_classes.xlsx
+++ b/backend/fixedFiles/customer_probabilities_and_classes.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Müşteri Kodu</t>
+          <t>Sözleşme No</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510965</t>
+          <t>9502679-2023-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -614,7 +614,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514058</t>
+          <t>9504700</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ERBE100164</t>
+          <t>9500126-2021-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -782,7 +782,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511503</t>
+          <t>9502992-2023-1-S</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514342</t>
+          <t>9504939</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -950,7 +950,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514265</t>
+          <t>9504881</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1032,7 +1032,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513870</t>
+          <t>9504588</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1114,7 +1114,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511549</t>
+          <t>9502992-2023-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1200,7 +1200,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514133</t>
+          <t>9504756</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1282,7 +1282,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513679</t>
+          <t>9504444</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513630</t>
+          <t>1046690-2023-1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514253</t>
+          <t>9504871</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511982</t>
+          <t>9503294-2023-1-S</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1614,7 +1614,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514112</t>
+          <t>9504745</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513889</t>
+          <t>9504608</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1778,7 +1778,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ERBE100751</t>
+          <t>9504975</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514281</t>
+          <t>9504893</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1946,7 +1946,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OMU000001899</t>
+          <t>9502992-2023-1-2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512217</t>
+          <t>9503449-2023-1-3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2118,7 +2118,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510879</t>
+          <t>9502599-2023-1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2204,7 +2204,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514172</t>
+          <t>9504799</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2286,7 +2286,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511981</t>
+          <t>9503294-2023-1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513933</t>
+          <t>9502598-2023-1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ERBE101085</t>
+          <t>9500791-2022-1-1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2544,7 +2544,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510068</t>
+          <t>9500623-2022-1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2630,7 +2630,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510461</t>
+          <t>9502851-2023-1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514282</t>
+          <t>9504893-S</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2798,7 +2798,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514134</t>
+          <t>9504758</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2876,7 +2876,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511607</t>
+          <t>9503066-2023-1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2962,7 +2962,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514163</t>
+          <t>9504786</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3044,7 +3044,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511655</t>
+          <t>9500623-2022-1-1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3126,7 +3126,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514234</t>
+          <t>9504854</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511580</t>
+          <t>9503041-2023-1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3294,7 +3294,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514167</t>
+          <t>9504790</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513923</t>
+          <t>9504624</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3458,7 +3458,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514249</t>
+          <t>9504865</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513922</t>
+          <t>9504623</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3622,7 +3622,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510395</t>
+          <t>9501390-2023-1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3708,7 +3708,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ERBE101083</t>
+          <t>9500791-2022-1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3794,7 +3794,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510144</t>
+          <t>8001268-2023-1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MU1302988510</t>
+          <t>9504861</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3962,7 +3962,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510968</t>
+          <t>9502679-2023-2-1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4046,7 +4046,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510967</t>
+          <t>9502679-2023-2-2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4130,7 +4130,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510824</t>
+          <t>9502502-2023-1-2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4216,7 +4216,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513881</t>
+          <t>9504600</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4298,7 +4298,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ERBE100174</t>
+          <t>9500133-2023-1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514332</t>
+          <t>9504927</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4466,7 +4466,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511998</t>
+          <t>9503305</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4548,7 +4548,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512000</t>
+          <t>9503305-S</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4630,7 +4630,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514120</t>
+          <t>9504751</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4712,7 +4712,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513873</t>
+          <t>9504592</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4794,7 +4794,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511759</t>
+          <t>9505412</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4876,7 +4876,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513553</t>
+          <t>9504362-S</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4958,7 +4958,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514389</t>
+          <t>9504982</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5040,7 +5040,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513386</t>
+          <t>9504241</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -5122,7 +5122,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514396</t>
+          <t>9504987</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5204,7 +5204,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514198</t>
+          <t>9504826</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5286,7 +5286,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ERBE102033</t>
+          <t>9501749-2023-1-S</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5372,7 +5372,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511746</t>
+          <t>9503148-2023-1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5458,7 +5458,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510835</t>
+          <t>9502502-2023-1-S</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5544,7 +5544,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513975</t>
+          <t>9504658</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5626,7 +5626,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512218</t>
+          <t>9503449-2023-1-2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5712,7 +5712,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514291</t>
+          <t>9504897</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5794,7 +5794,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512001</t>
+          <t>9503305-2</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5874,7 +5874,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510224</t>
+          <t>9504806</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5960,7 +5960,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510561</t>
+          <t>9501796-2022-2-1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -6044,7 +6044,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511863</t>
+          <t>9503227-2023-1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -6130,7 +6130,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ERBE101086</t>
+          <t>9500791-2022-1-S</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514276</t>
+          <t>9504889</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6298,7 +6298,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511999</t>
+          <t>9503305-1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -6378,7 +6378,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ERBE102034</t>
+          <t>9501749-2023-1-3</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6462,7 +6462,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ERBE102035</t>
+          <t>9501749-2023-1-2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6546,7 +6546,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514399</t>
+          <t>9504991-S</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6628,7 +6628,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514478</t>
+          <t>9505056</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6710,7 +6710,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514365</t>
+          <t>9504961</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6790,7 +6790,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ERBE101162</t>
+          <t>9500840-2023-1-S</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6876,7 +6876,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514154</t>
+          <t>9504778</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6958,7 +6958,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513549</t>
+          <t>9504359-S</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -7040,7 +7040,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ERBE100891</t>
+          <t>9500653-2023-1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7126,7 +7126,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ERBE101914</t>
+          <t>9501649-2023-1-1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -7212,7 +7212,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ERBE101205</t>
+          <t>9500882-2023-1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7298,7 +7298,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514063</t>
+          <t>1059318-2023-1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -7380,7 +7380,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511984</t>
+          <t>9503294-2023-1-1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -7464,7 +7464,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511983</t>
+          <t>9503294-2023-1-2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7548,7 +7548,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514441</t>
+          <t>9505032</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7630,7 +7630,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514108</t>
+          <t>9504742</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7712,7 +7712,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ERBE101716</t>
+          <t>9501453-2023-1-2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7798,7 +7798,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512866</t>
+          <t>9503908</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7880,7 +7880,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512025</t>
+          <t>9503321-S</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -7940,7 +7940,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7962,7 +7962,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>M8082S62AD3263515785</t>
+          <t>9504713</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -8022,7 +8022,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -8044,7 +8044,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513860</t>
+          <t>9504576</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -8126,7 +8126,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514075</t>
+          <t>9504715-S</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -8208,7 +8208,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513769</t>
+          <t>9504511</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -8290,7 +8290,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514226</t>
+          <t>9504847</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -8372,7 +8372,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514240</t>
+          <t>9504860</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -8454,7 +8454,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512253</t>
+          <t>9503469-2023-1-S</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -8540,7 +8540,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511480</t>
+          <t>9505366</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -8622,7 +8622,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513899</t>
+          <t>9504613</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8704,7 +8704,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513932</t>
+          <t>9504629</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8786,7 +8786,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513569</t>
+          <t>9504373</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -8868,7 +8868,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514201</t>
+          <t>9504829</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -8950,7 +8950,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513999</t>
+          <t>9504668-S</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -9032,7 +9032,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513875</t>
+          <t>9504597</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -9114,7 +9114,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512086</t>
+          <t>9503366-2023-1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -9200,7 +9200,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513853</t>
+          <t>9504567</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -9282,7 +9282,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513930</t>
+          <t>9504628</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -9342,7 +9342,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -9364,7 +9364,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514247</t>
+          <t>9504864</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -9446,7 +9446,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ERBE101717</t>
+          <t>9501453-2023-1-S</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -9532,7 +9532,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513778</t>
+          <t>9504520</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -9614,7 +9614,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510886</t>
+          <t>9502617-2023-2</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -9700,7 +9700,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ERBE102008</t>
+          <t>9501736-2023-1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -9786,7 +9786,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514310</t>
+          <t>9504910</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -9868,7 +9868,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ERBE101867</t>
+          <t>9501598-2023-1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -9954,7 +9954,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ERBE100294</t>
+          <t>9504817</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -10040,7 +10040,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512024</t>
+          <t>9503321</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -10122,7 +10122,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514224</t>
+          <t>9504845-S</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -10204,7 +10204,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510834</t>
+          <t>9502502-2023-1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -10290,7 +10290,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514132</t>
+          <t>9504754-1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -10372,7 +10372,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ERBE102091</t>
+          <t>9501815-2023-1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -10458,7 +10458,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514190</t>
+          <t>9504810</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -10518,7 +10518,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -10540,7 +10540,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513934</t>
+          <t>9504630-S</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -10622,7 +10622,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514199</t>
+          <t>9504827</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -10704,7 +10704,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513980</t>
+          <t>9504662-3</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -10786,7 +10786,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512222</t>
+          <t>9503451</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -10872,7 +10872,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514397</t>
+          <t>9504989</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -10954,7 +10954,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512254</t>
+          <t>9503469-2023-1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -11014,7 +11014,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -11040,7 +11040,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514020</t>
+          <t>9504920</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -11100,7 +11100,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -11126,7 +11126,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514019</t>
+          <t>9504677</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -11208,7 +11208,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514051</t>
+          <t>9504695</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -11290,7 +11290,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514191</t>
+          <t>9504811</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -11372,7 +11372,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ERBE102851</t>
+          <t>9502502-2023-1-3</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -11430,7 +11430,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -11456,7 +11456,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511285</t>
+          <t>9502851-2023-1-S</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -11542,7 +11542,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511294</t>
+          <t>9502856-2023-1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -11626,7 +11626,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513485</t>
+          <t>9504310</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -11686,7 +11686,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -11708,7 +11708,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514157</t>
+          <t>9504781</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -11768,7 +11768,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -11790,7 +11790,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511915</t>
+          <t>9503257</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -11850,7 +11850,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -11872,7 +11872,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510119</t>
+          <t>9500840-2023-1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -11958,7 +11958,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ERBE102329</t>
+          <t>9503451-S</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -12044,7 +12044,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514091</t>
+          <t>9504732</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -12126,7 +12126,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511871</t>
+          <t>9501420-2023-1-2</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -12206,7 +12206,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>M8082S62AD3263515213</t>
+          <t>9505632</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -12266,7 +12266,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -12288,7 +12288,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514239</t>
+          <t>9504858</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -12348,7 +12348,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -12370,7 +12370,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512425</t>
+          <t>9503583-2023-1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -12456,7 +12456,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ERBE102026</t>
+          <t>9501749-2023-1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -12542,7 +12542,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513780</t>
+          <t>9504520-S</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -12624,7 +12624,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514000</t>
+          <t>9504668-2</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -12684,7 +12684,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -12706,7 +12706,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ERBE101715</t>
+          <t>9501453-2023-1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -12792,7 +12792,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514118</t>
+          <t>9504750</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -12874,7 +12874,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514233</t>
+          <t>9504853</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -12934,7 +12934,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -12956,7 +12956,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514236</t>
+          <t>9504857</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -13016,7 +13016,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -13038,7 +13038,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514314</t>
+          <t>9504913</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -13120,7 +13120,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512485</t>
+          <t>9503628-2023-1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -13206,7 +13206,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513770</t>
+          <t>9504511-S</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -13288,7 +13288,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514185</t>
+          <t>9504802</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -13370,7 +13370,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514076</t>
+          <t>9504715-3</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -13452,7 +13452,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ERBE101290</t>
+          <t>9505436</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -13534,7 +13534,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514267</t>
+          <t>9504882</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -13594,7 +13594,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -13616,7 +13616,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511917</t>
+          <t>9503258-2023-1-1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -13702,7 +13702,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513969</t>
+          <t>9504656</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -13784,7 +13784,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511284</t>
+          <t>9502851-2023-1-1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -13844,7 +13844,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -13870,7 +13870,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514349</t>
+          <t>9504945</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -13930,7 +13930,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -13952,7 +13952,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510120</t>
+          <t>9504757</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -14030,7 +14030,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513951</t>
+          <t>9504640</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -14090,7 +14090,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -14112,7 +14112,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513777</t>
+          <t>9504517</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -14172,7 +14172,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -14194,7 +14194,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513928</t>
+          <t>9504627-S</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -14276,7 +14276,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514439</t>
+          <t>9505030</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -14358,7 +14358,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514002</t>
+          <t>9504669</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -14440,7 +14440,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514121</t>
+          <t>9504752</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -14522,7 +14522,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512219</t>
+          <t>9503449-2023-1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -14580,7 +14580,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -14606,7 +14606,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511475</t>
+          <t>9502968-S3</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -14688,7 +14688,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513664</t>
+          <t>9504434-S</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -14748,7 +14748,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -14770,7 +14770,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514060</t>
+          <t>9504704-1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -14846,7 +14846,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514370</t>
+          <t>9504966</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -14928,7 +14928,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513428</t>
+          <t>9504262-2024-9</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -14988,7 +14988,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -15014,7 +15014,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514204</t>
+          <t>9504833</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -15074,7 +15074,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -15096,7 +15096,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513728</t>
+          <t>9504482</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -15178,7 +15178,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511870</t>
+          <t>9501420-2023-1-1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -15258,7 +15258,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513898</t>
+          <t>9504612</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -15318,7 +15318,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -15340,7 +15340,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514223</t>
+          <t>9504845</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -15422,7 +15422,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512106</t>
+          <t>9503372-2023-1-1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -15480,7 +15480,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -15506,7 +15506,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514125</t>
+          <t>9504753-1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -15588,7 +15588,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513859</t>
+          <t>9504575</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -15670,7 +15670,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513968</t>
+          <t>9504655</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -15750,7 +15750,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511985</t>
+          <t>9503295-2023-1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -15808,7 +15808,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -15834,7 +15834,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511477</t>
+          <t>9502968-S</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -15894,7 +15894,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -15916,7 +15916,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511867</t>
+          <t>9503230-2023-1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -16002,7 +16002,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514402</t>
+          <t>9504994</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -16084,7 +16084,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510560</t>
+          <t>9501796-2022-2</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -16144,7 +16144,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -16170,7 +16170,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514211</t>
+          <t>9504836</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -16230,7 +16230,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -16252,7 +16252,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512332</t>
+          <t>9503512</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -16334,7 +16334,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ERBE102220</t>
+          <t>9501929-2023-1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -16420,7 +16420,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514077</t>
+          <t>9504715-2</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -16480,7 +16480,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -16502,7 +16502,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514432</t>
+          <t>9505016</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -16562,7 +16562,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -16584,7 +16584,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514259</t>
+          <t>9504876</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -16666,7 +16666,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513952</t>
+          <t>9504641</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -16726,7 +16726,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -16748,7 +16748,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514417</t>
+          <t>9505007</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -16830,7 +16830,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514220</t>
+          <t>9504841-1</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -16906,7 +16906,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514186</t>
+          <t>9504802-1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -16982,7 +16982,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513921</t>
+          <t>9504630</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -17064,7 +17064,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513981</t>
+          <t>9504662</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -17146,7 +17146,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511914</t>
+          <t>9503256-2023-1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -17206,7 +17206,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -17232,7 +17232,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514122</t>
+          <t>9504751-1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -17308,7 +17308,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513931</t>
+          <t>9504624-1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -17384,7 +17384,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511478</t>
+          <t>9502968</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -17444,7 +17444,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -17466,7 +17466,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514375</t>
+          <t>9504968</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -17548,7 +17548,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511046</t>
+          <t>9502723-2023-1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -17634,7 +17634,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ERBE101616</t>
+          <t>9503934-2023-1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -17694,7 +17694,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -17720,7 +17720,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514257</t>
+          <t>9504874</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -17802,7 +17802,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514146</t>
+          <t>9504772</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -17884,7 +17884,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513659</t>
+          <t>9504433</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -17966,7 +17966,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511559</t>
+          <t>9503030-2023-1</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -18052,7 +18052,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510398</t>
+          <t>9501398-2023-1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -18112,7 +18112,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -18138,7 +18138,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510419</t>
+          <t>9501449-2023-1</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -18224,7 +18224,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514015</t>
+          <t>9504673-2</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -18284,7 +18284,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -18306,7 +18306,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512176</t>
+          <t>9503422-2023-1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -18392,7 +18392,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512351</t>
+          <t>9503524</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -18474,7 +18474,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513982</t>
+          <t>9504662-S</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -18534,7 +18534,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -18556,7 +18556,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513619</t>
+          <t>9504402-S</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -18616,7 +18616,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -18638,7 +18638,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514219</t>
+          <t>9504841</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -18698,7 +18698,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -18720,7 +18720,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511476</t>
+          <t>9502968-1</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -18780,7 +18780,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>[2.48-13.94)</t>
+          <t>[2.55-14.36)</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -18802,7 +18802,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510402</t>
+          <t>9501420-2023-1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -18862,7 +18862,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -18888,7 +18888,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513490</t>
+          <t>9504313</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -18970,7 +18970,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513817</t>
+          <t>9504543-S</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -19030,7 +19030,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -19052,7 +19052,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ERBE102806</t>
+          <t>9502473-2023-1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -19112,7 +19112,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -19138,7 +19138,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511862</t>
+          <t>9505364</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -19220,7 +19220,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514059</t>
+          <t>9504704</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -19280,7 +19280,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -19302,7 +19302,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512055</t>
+          <t>9503339-1</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -19378,7 +19378,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514062</t>
+          <t>9504705-1</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -19454,7 +19454,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513868</t>
+          <t>9504587-1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -19530,7 +19530,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513869</t>
+          <t>9504587-2</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -19606,7 +19606,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511026</t>
+          <t>9502709-2023-1</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -19666,7 +19666,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -19692,7 +19692,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513676</t>
+          <t>9504441</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -19752,7 +19752,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -19774,7 +19774,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513993</t>
+          <t>9504666-1</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -19832,7 +19832,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -19854,7 +19854,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513554</t>
+          <t>9504362-1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -19934,7 +19934,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514070</t>
+          <t>9504710-S</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -19994,7 +19994,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -20016,7 +20016,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511654</t>
+          <t>9500623-2022-1-S</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -20098,7 +20098,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ERBE101028</t>
+          <t>9500752-2023-1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -20158,7 +20158,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -20184,7 +20184,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514251</t>
+          <t>9504868</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -20266,7 +20266,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513911</t>
+          <t>9504619</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -20326,7 +20326,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -20348,7 +20348,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510586</t>
+          <t>9501872-2023-1</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -20434,7 +20434,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513718</t>
+          <t>9504473-1</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -20494,7 +20494,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -20516,7 +20516,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514254</t>
+          <t>9504872</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -20598,7 +20598,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512087</t>
+          <t>9503366-2023-1-1</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -20678,7 +20678,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512708</t>
+          <t>9503076-1</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -20754,7 +20754,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513756</t>
+          <t>9504503</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -20814,7 +20814,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -20836,7 +20836,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512867</t>
+          <t>9503908-S</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -20896,7 +20896,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -20918,7 +20918,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ERBE101595</t>
+          <t>9501333-2023-1</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -20978,7 +20978,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -21004,7 +21004,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512528</t>
+          <t>9503671-2023-1</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -21090,7 +21090,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513376</t>
+          <t>9504234</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -21150,7 +21150,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -21172,7 +21172,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514170</t>
+          <t>9504792</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -21232,7 +21232,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -21254,7 +21254,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513618</t>
+          <t>9504402-3</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -21312,7 +21312,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -21334,7 +21334,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514071</t>
+          <t>9504710-2</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -21416,7 +21416,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513958</t>
+          <t>9504647</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -21476,7 +21476,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -21498,7 +21498,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514225</t>
+          <t>9504845-1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -21556,7 +21556,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -21578,7 +21578,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514074</t>
+          <t>9504715</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -21638,7 +21638,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -21660,7 +21660,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514137</t>
+          <t>9504764</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -21720,7 +21720,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -21742,7 +21742,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514278</t>
+          <t>9504890</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -21824,7 +21824,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513527</t>
+          <t>9504344-S</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -21884,7 +21884,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -21906,7 +21906,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513717</t>
+          <t>9504473-S</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -21966,7 +21966,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -21988,7 +21988,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514072</t>
+          <t>9504712</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -22048,7 +22048,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -22070,7 +22070,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ERBE102380</t>
+          <t>9502070</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -22130,7 +22130,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -22152,7 +22152,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514030</t>
+          <t>9504685-S2</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -22210,7 +22210,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -22232,7 +22232,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514069</t>
+          <t>9504710</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -22292,7 +22292,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -22314,7 +22314,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513116</t>
+          <t>9504901</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -22374,7 +22374,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -22400,7 +22400,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511555</t>
+          <t>9503024-2023-2-S</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -22460,7 +22460,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
@@ -22486,7 +22486,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ERBE100516</t>
+          <t>9500398-2023-1</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -22546,7 +22546,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -22572,7 +22572,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511829</t>
+          <t>9503208-2023-1-S</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -22632,7 +22632,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -22658,7 +22658,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513414</t>
+          <t>9504255</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -22718,7 +22718,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -22740,7 +22740,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511627</t>
+          <t>9503076</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -22800,7 +22800,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -22822,7 +22822,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513117</t>
+          <t>9504901-2</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -22882,7 +22882,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -22908,7 +22908,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514350</t>
+          <t>9504945-1</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -22984,7 +22984,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514174</t>
+          <t>9504794</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -23044,7 +23044,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -23066,7 +23066,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ERBE101476</t>
+          <t>9501220-2022-1</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -23126,7 +23126,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -23152,7 +23152,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513691</t>
+          <t>9504454</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -23212,7 +23212,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -23234,7 +23234,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513552</t>
+          <t>9504362</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -23294,7 +23294,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -23316,7 +23316,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513715</t>
+          <t>9504473</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -23376,7 +23376,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -23398,7 +23398,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512077</t>
+          <t>9505365</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -23480,7 +23480,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513556</t>
+          <t>9504363</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -23540,7 +23540,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -23562,7 +23562,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514406</t>
+          <t>9504996-S</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -23622,7 +23622,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
@@ -23644,7 +23644,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512830</t>
+          <t>9503861-1</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -23720,7 +23720,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513339</t>
+          <t>9504207-S</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -23780,7 +23780,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -23802,7 +23802,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514391</t>
+          <t>9504983-S</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -23862,7 +23862,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -23884,7 +23884,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512383</t>
+          <t>9503545-2023-1</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -23970,7 +23970,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513479</t>
+          <t>9504344</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -24030,7 +24030,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -24056,7 +24056,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513983</t>
+          <t>9504662-1</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -24136,7 +24136,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510788</t>
+          <t>9502412-2023-1</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -24196,7 +24196,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -24222,7 +24222,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514106</t>
+          <t>9504741-S</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -24282,7 +24282,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -24304,7 +24304,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513974</t>
+          <t>9504657-1</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -24362,7 +24362,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -24384,7 +24384,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ERBE102387</t>
+          <t>9502080-2022-2</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -24444,7 +24444,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -24470,7 +24470,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513783</t>
+          <t>9503258-2023-1-S</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -24530,7 +24530,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -24552,7 +24552,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513716</t>
+          <t>9504473-S3</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -24612,7 +24612,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -24634,7 +24634,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513535</t>
+          <t>9504350</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -24694,7 +24694,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -24716,7 +24716,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514855</t>
+          <t>9503203-2</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -24774,7 +24774,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -24796,7 +24796,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511605</t>
+          <t>9503064-2023-1</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -24856,7 +24856,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
@@ -24882,7 +24882,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514374</t>
+          <t>9504967-1</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -24942,7 +24942,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -24964,7 +24964,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514003</t>
+          <t>9504669-S</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -25024,7 +25024,7 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
@@ -25046,7 +25046,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514034</t>
+          <t>9504650</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -25106,7 +25106,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
@@ -25128,7 +25128,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512445</t>
+          <t>9503598-2023-1</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -25186,7 +25186,7 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
@@ -25212,7 +25212,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514392</t>
+          <t>9504983-2</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
@@ -25292,7 +25292,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513346</t>
+          <t>9504212</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -25352,7 +25352,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
@@ -25374,7 +25374,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513912</t>
+          <t>9504620</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -25434,7 +25434,7 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -25456,7 +25456,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513305</t>
+          <t>9504188-2</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -25514,7 +25514,7 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
@@ -25536,7 +25536,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513173</t>
+          <t>9504110</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -25596,7 +25596,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
@@ -25618,7 +25618,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512560</t>
+          <t>9503693-2023-1</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -25678,7 +25678,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
@@ -25704,7 +25704,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511307</t>
+          <t>9502868-2023-1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -25788,7 +25788,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514243</t>
+          <t>9504863-S</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
@@ -25870,7 +25870,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513976</t>
+          <t>9504659</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -25930,7 +25930,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -25952,7 +25952,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514105</t>
+          <t>9504741</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -26012,7 +26012,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -26034,7 +26034,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512033</t>
+          <t>9503326-2023-1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -26094,7 +26094,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -26120,7 +26120,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>M8082S62AD3263515106</t>
+          <t>9505566</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -26180,7 +26180,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -26202,7 +26202,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514401</t>
+          <t>9504992</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -26262,7 +26262,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -26284,7 +26284,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510029</t>
+          <t>9500464-2022-1</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -26344,7 +26344,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -26370,7 +26370,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513591</t>
+          <t>9504389</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -26430,7 +26430,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -26452,7 +26452,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513758</t>
+          <t>9504503-S</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -26512,7 +26512,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -26534,7 +26534,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513755</t>
+          <t>9504505</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -26594,7 +26594,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
@@ -26616,7 +26616,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514117</t>
+          <t>9501505-2023-1-2</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -26674,7 +26674,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -26696,7 +26696,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513617</t>
+          <t>9504402-1</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -26754,7 +26754,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -26776,7 +26776,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513944</t>
+          <t>9504636</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -26836,7 +26836,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
@@ -26858,7 +26858,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513998</t>
+          <t>9504668</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -26918,7 +26918,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
@@ -26940,7 +26940,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514187</t>
+          <t>9504805</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -27000,7 +27000,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
@@ -27022,7 +27022,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513965</t>
+          <t>9504652</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -27082,7 +27082,7 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N322" t="inlineStr">
@@ -27104,7 +27104,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ERBE101773</t>
+          <t>9501505-2023-1</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -27164,7 +27164,7 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
@@ -27190,7 +27190,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510534</t>
+          <t>1025038-2023-1</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
@@ -27276,7 +27276,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511554</t>
+          <t>9503024-2023-2</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -27336,7 +27336,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
@@ -27362,7 +27362,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514411</t>
+          <t>9505000</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -27422,7 +27422,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
@@ -27444,7 +27444,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512105</t>
+          <t>9503372-2023-1</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -27504,7 +27504,7 @@
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
@@ -27530,7 +27530,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514004</t>
+          <t>9504669-2</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -27588,7 +27588,7 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
@@ -27610,7 +27610,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513481</t>
+          <t>9504344-2</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -27668,7 +27668,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -27694,7 +27694,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513480</t>
+          <t>9504344-3</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -27752,7 +27752,7 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N330" t="inlineStr">
@@ -27778,7 +27778,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511761</t>
+          <t>9503161-2023-1</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -27838,7 +27838,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -27864,7 +27864,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ERBE102899</t>
+          <t>9502587-2023-1</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -27924,7 +27924,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -27950,7 +27950,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514390</t>
+          <t>9504983</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -28010,7 +28010,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
@@ -28032,7 +28032,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514130</t>
+          <t>9504754-4</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -28092,7 +28092,7 @@
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
@@ -28114,7 +28114,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513757</t>
+          <t>9504503-1</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -28172,7 +28172,7 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -28194,7 +28194,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514293</t>
+          <t>9504901-S</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -28254,7 +28254,7 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
@@ -28276,7 +28276,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514057</t>
+          <t>9504699</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -28336,7 +28336,7 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
@@ -28358,7 +28358,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512312</t>
+          <t>9503500-2023-1-S</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -28418,7 +28418,7 @@
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
@@ -28444,7 +28444,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512920</t>
+          <t>9503938</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -28504,7 +28504,7 @@
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
@@ -28526,7 +28526,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514371</t>
+          <t>9504967</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -28586,7 +28586,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
@@ -28608,7 +28608,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514158</t>
+          <t>9504782</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -28668,7 +28668,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -28690,7 +28690,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512128</t>
+          <t>9503389-2023-1</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -28750,7 +28750,7 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -28776,7 +28776,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513913</t>
+          <t>9504620-S</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -28836,7 +28836,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -28858,7 +28858,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514382</t>
+          <t>9505006</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -28918,7 +28918,7 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
@@ -28944,7 +28944,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512010</t>
+          <t>9505283</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -29004,7 +29004,7 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
@@ -29030,7 +29030,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514242</t>
+          <t>9504863</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -29090,7 +29090,7 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N346" t="inlineStr">
@@ -29112,7 +29112,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514028</t>
+          <t>9504685-S</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -29172,7 +29172,7 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
@@ -29194,7 +29194,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514084</t>
+          <t>9504722-3</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -29254,7 +29254,7 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
@@ -29276,7 +29276,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514854</t>
+          <t>9503203-S</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -29336,7 +29336,7 @@
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N349" t="inlineStr">
@@ -29358,7 +29358,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511830</t>
+          <t>9503208-2023-1-2</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -29416,7 +29416,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
@@ -29442,7 +29442,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514415</t>
+          <t>9505006-S</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -29502,7 +29502,7 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
@@ -29524,7 +29524,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513781</t>
+          <t>9504520-2</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -29582,7 +29582,7 @@
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
@@ -29604,7 +29604,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513782</t>
+          <t>9504520-1</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -29662,7 +29662,7 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
@@ -29684,7 +29684,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513927</t>
+          <t>9504627</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -29744,7 +29744,7 @@
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
@@ -29766,7 +29766,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514213</t>
+          <t>9504837-S</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -29826,7 +29826,7 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N355" t="inlineStr">
@@ -29848,7 +29848,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514029</t>
+          <t>9504685</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -29908,7 +29908,7 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N356" t="inlineStr">
@@ -29930,7 +29930,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514260</t>
+          <t>9504876-1</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -30006,7 +30006,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513614</t>
+          <t>9504402</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -30066,7 +30066,7 @@
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -30088,7 +30088,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514008</t>
+          <t>9504671</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -30148,7 +30148,7 @@
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N359" t="inlineStr">
@@ -30170,7 +30170,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514489</t>
+          <t>9505066-S</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -30230,7 +30230,7 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
@@ -30252,7 +30252,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513147</t>
+          <t>9504098</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -30312,7 +30312,7 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
@@ -30334,7 +30334,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513340</t>
+          <t>9504207-1</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -30392,7 +30392,7 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
@@ -30414,7 +30414,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514001</t>
+          <t>9504668-1</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -30472,7 +30472,7 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
@@ -30494,7 +30494,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513303</t>
+          <t>9504188</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -30554,7 +30554,7 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
@@ -30576,7 +30576,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513962</t>
+          <t>9504651</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -30636,7 +30636,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N365" t="inlineStr">
@@ -30658,7 +30658,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512166</t>
+          <t>9503414-2</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -30716,7 +30716,7 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
@@ -30738,7 +30738,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512097</t>
+          <t>9503369</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -30798,7 +30798,7 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -30820,7 +30820,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511916</t>
+          <t>9503258-2023-1</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -30880,7 +30880,7 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
@@ -30906,7 +30906,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513304</t>
+          <t>9504188-S</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -30966,7 +30966,7 @@
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
@@ -30988,7 +30988,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514126</t>
+          <t>9504753</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -31048,7 +31048,7 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
@@ -31070,7 +31070,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514372</t>
+          <t>9504967-S</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -31130,7 +31130,7 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
@@ -31152,7 +31152,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513110</t>
+          <t>9504070</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -31212,7 +31212,7 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
@@ -31234,7 +31234,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513369</t>
+          <t>9504226</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -31294,7 +31294,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
@@ -31316,7 +31316,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ERBE102175</t>
+          <t>9501892-2023-1</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -31376,7 +31376,7 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
@@ -31402,7 +31402,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512352</t>
+          <t>9503523</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -31462,7 +31462,7 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N375" t="inlineStr">
@@ -31484,7 +31484,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514128</t>
+          <t>9504754-S</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -31542,7 +31542,7 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N376" t="inlineStr">
@@ -31564,7 +31564,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514309</t>
+          <t>9504909-2</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -31622,7 +31622,7 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
@@ -31644,7 +31644,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513631</t>
+          <t>9504415</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -31704,7 +31704,7 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
@@ -31726,7 +31726,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513592</t>
+          <t>9504390</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -31784,7 +31784,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
@@ -31806,7 +31806,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512402</t>
+          <t>9503563-S</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
@@ -31888,7 +31888,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512167</t>
+          <t>9503414-3</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -31946,7 +31946,7 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N381" t="inlineStr">
@@ -31968,7 +31968,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514086</t>
+          <t>9504723</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -32028,7 +32028,7 @@
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N382" t="inlineStr">
@@ -32050,7 +32050,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512526</t>
+          <t>9503669-1</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -32110,7 +32110,7 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
@@ -32132,7 +32132,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514367</t>
+          <t>9504965-S</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -32190,7 +32190,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -32212,7 +32212,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514339</t>
+          <t>9504935</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -32272,7 +32272,7 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
@@ -32294,7 +32294,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512525</t>
+          <t>9503669-S</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -32354,7 +32354,7 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
@@ -32376,7 +32376,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514031</t>
+          <t>9504965</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -32436,7 +32436,7 @@
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N387" t="inlineStr">
@@ -32462,7 +32462,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ERBE101231</t>
+          <t>9503461</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -32522,7 +32522,7 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
@@ -32548,7 +32548,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514307</t>
+          <t>9504909</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -32608,7 +32608,7 @@
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N389" t="inlineStr">
@@ -32630,7 +32630,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514338</t>
+          <t>9504934</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -32690,7 +32690,7 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N390" t="inlineStr">
@@ -32712,7 +32712,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513313</t>
+          <t>9504193-S</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -32772,7 +32772,7 @@
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N391" t="inlineStr">
@@ -32794,7 +32794,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514324</t>
+          <t>9504920-S</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -32854,7 +32854,7 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N392" t="inlineStr">
@@ -32876,7 +32876,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514405</t>
+          <t>9504996-1</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -32934,7 +32934,7 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N393" t="inlineStr">
@@ -32956,7 +32956,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ERBE102388</t>
+          <t>9502083-2023-1</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -33016,7 +33016,7 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N394" t="inlineStr">
@@ -33042,7 +33042,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513914</t>
+          <t>9504620-2</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -33102,7 +33102,7 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N395" t="inlineStr">
@@ -33124,7 +33124,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512208</t>
+          <t>9503443</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -33184,7 +33184,7 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N396" t="inlineStr">
@@ -33206,7 +33206,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514085</t>
+          <t>9504722-2</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -33264,7 +33264,7 @@
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N397" t="inlineStr">
@@ -33286,7 +33286,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513943</t>
+          <t>9504635</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -33346,7 +33346,7 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
@@ -33368,7 +33368,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513935</t>
+          <t>9504630-1</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -33426,7 +33426,7 @@
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N399" t="inlineStr">
@@ -33448,7 +33448,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513920</t>
+          <t>9504630-3</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -33506,7 +33506,7 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N400" t="inlineStr">
@@ -33528,7 +33528,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514005</t>
+          <t>9504669-1</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -33586,7 +33586,7 @@
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N401" t="inlineStr">
@@ -33608,7 +33608,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514308</t>
+          <t>9504909-S</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -33668,7 +33668,7 @@
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N402" t="inlineStr">
@@ -33690,7 +33690,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ERBE102331</t>
+          <t>9503451-1</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -33748,7 +33748,7 @@
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
@@ -33774,7 +33774,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514022</t>
+          <t>9504679</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -33832,7 +33832,7 @@
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
@@ -33854,7 +33854,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513821</t>
+          <t>9504543</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -33914,7 +33914,7 @@
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N405" t="inlineStr">
@@ -33936,7 +33936,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513741</t>
+          <t>9504494</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -33996,7 +33996,7 @@
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
@@ -34018,7 +34018,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511484</t>
+          <t>9502981</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -34078,7 +34078,7 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
@@ -34100,7 +34100,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514159</t>
+          <t>9504783</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -34160,7 +34160,7 @@
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
@@ -34182,7 +34182,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514131</t>
+          <t>9504754-2</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -34240,7 +34240,7 @@
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N409" t="inlineStr">
@@ -34262,7 +34262,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513368</t>
+          <t>9504226-S</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -34322,7 +34322,7 @@
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N410" t="inlineStr">
@@ -34344,7 +34344,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510372</t>
+          <t>9503786</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -34404,7 +34404,7 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
@@ -34430,7 +34430,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511010</t>
+          <t>9502784-2023-1</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -34490,7 +34490,7 @@
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N412" t="inlineStr">
@@ -34516,7 +34516,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514248</t>
+          <t>9504864-S</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -34576,7 +34576,7 @@
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
@@ -34598,7 +34598,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ERBE102452</t>
+          <t>9503461-S</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -34658,7 +34658,7 @@
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N414" t="inlineStr">
@@ -34684,7 +34684,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514488</t>
+          <t>9505066</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -34744,7 +34744,7 @@
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
@@ -34766,7 +34766,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514214</t>
+          <t>9504837-2</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -34824,7 +34824,7 @@
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N416" t="inlineStr">
@@ -34846,7 +34846,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514256</t>
+          <t>9504872-2</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -34904,7 +34904,7 @@
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N417" t="inlineStr">
@@ -34926,7 +34926,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514856</t>
+          <t>9503203-3</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -34984,7 +34984,7 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N418" t="inlineStr">
@@ -35006,7 +35006,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513660</t>
+          <t>9504433-S</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -35066,7 +35066,7 @@
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N419" t="inlineStr">
@@ -35088,7 +35088,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511168</t>
+          <t>9505777-2</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -35168,7 +35168,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513761</t>
+          <t>9503116-2023-1-S</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -35228,7 +35228,7 @@
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N421" t="inlineStr">
@@ -35250,7 +35250,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514147</t>
+          <t>9504772-S</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -35310,7 +35310,7 @@
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
@@ -35332,7 +35332,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514244</t>
+          <t>9504863-2</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -35390,7 +35390,7 @@
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N423" t="inlineStr">
@@ -35412,7 +35412,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514490</t>
+          <t>9505066-1</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -35470,7 +35470,7 @@
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N424" t="inlineStr">
@@ -35492,7 +35492,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514148</t>
+          <t>9504772-1</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -35550,7 +35550,7 @@
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N425" t="inlineStr">
@@ -35572,7 +35572,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512168</t>
+          <t>9503414</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -35632,7 +35632,7 @@
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N426" t="inlineStr">
@@ -35654,7 +35654,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ERBE101774</t>
+          <t>9501505-2023-1-S</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -35712,7 +35712,7 @@
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N427" t="inlineStr">
@@ -35738,7 +35738,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513661</t>
+          <t>9504433-2</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -35796,7 +35796,7 @@
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
@@ -35818,7 +35818,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513662</t>
+          <t>9504433-1</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -35876,7 +35876,7 @@
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N429" t="inlineStr">
@@ -35898,7 +35898,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512512</t>
+          <t>9503648</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -35958,7 +35958,7 @@
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N430" t="inlineStr">
@@ -35980,7 +35980,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514373</t>
+          <t>9504967-2</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -36040,7 +36040,7 @@
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N431" t="inlineStr">
@@ -36062,7 +36062,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514264</t>
+          <t>9504880-S</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -36122,7 +36122,7 @@
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N432" t="inlineStr">
@@ -36144,7 +36144,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ERBE102475</t>
+          <t>9502177-2023-1</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -36204,7 +36204,7 @@
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N433" t="inlineStr">
@@ -36230,7 +36230,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514212</t>
+          <t>9504837</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -36290,7 +36290,7 @@
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N434" t="inlineStr">
@@ -36312,7 +36312,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514123</t>
+          <t>9504741-2</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -36372,7 +36372,7 @@
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N435" t="inlineStr">
@@ -36394,7 +36394,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513929</t>
+          <t>9504627-2</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -36452,7 +36452,7 @@
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N436" t="inlineStr">
@@ -36474,7 +36474,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514326</t>
+          <t>9504920-2</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -36532,7 +36532,7 @@
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N437" t="inlineStr">
@@ -36554,7 +36554,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513516</t>
+          <t>9504336</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -36614,7 +36614,7 @@
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N438" t="inlineStr">
@@ -36636,7 +36636,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512096</t>
+          <t>9503369-1</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -36694,7 +36694,7 @@
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N439" t="inlineStr">
@@ -36716,7 +36716,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512095</t>
+          <t>9503369-2</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -36774,7 +36774,7 @@
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N440" t="inlineStr">
@@ -36796,7 +36796,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512404</t>
+          <t>9503563</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -36856,7 +36856,7 @@
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N441" t="inlineStr">
@@ -36878,7 +36878,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512410</t>
+          <t>9503570-2023-1</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -36938,7 +36938,7 @@
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N442" t="inlineStr">
@@ -36964,7 +36964,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511490</t>
+          <t>9502981-S</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -37024,7 +37024,7 @@
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N443" t="inlineStr">
@@ -37046,7 +37046,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514168</t>
+          <t>9504791</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -37106,7 +37106,7 @@
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N444" t="inlineStr">
@@ -37128,7 +37128,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514013</t>
+          <t>9504673-S</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -37188,7 +37188,7 @@
       </c>
       <c r="M445" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N445" t="inlineStr">
@@ -37210,7 +37210,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514263</t>
+          <t>9504880</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -37270,7 +37270,7 @@
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N446" t="inlineStr">
@@ -37292,7 +37292,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514192</t>
+          <t>9504815</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -37352,7 +37352,7 @@
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N447" t="inlineStr">
@@ -37374,7 +37374,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512054</t>
+          <t>9503339</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -37434,7 +37434,7 @@
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N448" t="inlineStr">
@@ -37456,7 +37456,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514127</t>
+          <t>9504754</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -37514,7 +37514,7 @@
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N449" t="inlineStr">
@@ -37536,7 +37536,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514368</t>
+          <t>9504965-1</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -37594,7 +37594,7 @@
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N450" t="inlineStr">
@@ -37616,7 +37616,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513768</t>
+          <t>9504510-S</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -37676,7 +37676,7 @@
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N451" t="inlineStr">
@@ -37698,7 +37698,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512094</t>
+          <t>9503369-S</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -37758,7 +37758,7 @@
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N452" t="inlineStr">
@@ -37780,7 +37780,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512988</t>
+          <t>9503982</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -37840,7 +37840,7 @@
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N453" t="inlineStr">
@@ -37862,7 +37862,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511534</t>
+          <t>9503013</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -37922,7 +37922,7 @@
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N454" t="inlineStr">
@@ -37944,7 +37944,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ERBE101764</t>
+          <t>9501495-2023-1</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -38004,7 +38004,7 @@
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N455" t="inlineStr">
@@ -38030,7 +38030,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513338</t>
+          <t>9504207</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -38090,7 +38090,7 @@
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N456" t="inlineStr">
@@ -38112,7 +38112,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512165</t>
+          <t>9503414-S</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -38172,7 +38172,7 @@
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N457" t="inlineStr">
@@ -38194,7 +38194,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511825</t>
+          <t>9503203</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -38254,7 +38254,7 @@
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N458" t="inlineStr">
@@ -38276,7 +38276,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513759</t>
+          <t>9504510</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -38336,7 +38336,7 @@
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N459" t="inlineStr">
@@ -38362,7 +38362,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513519</t>
+          <t>9504340</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -38422,7 +38422,7 @@
       </c>
       <c r="M460" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N460" t="inlineStr">
@@ -38444,7 +38444,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514082</t>
+          <t>9504722-S</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -38504,7 +38504,7 @@
       </c>
       <c r="M461" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N461" t="inlineStr">
@@ -38526,7 +38526,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514404</t>
+          <t>9504996</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -38586,7 +38586,7 @@
       </c>
       <c r="M462" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N462" t="inlineStr">
@@ -38608,7 +38608,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514129</t>
+          <t>9504754-5</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -38668,7 +38668,7 @@
       </c>
       <c r="M463" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N463" t="inlineStr">
@@ -38690,7 +38690,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514255</t>
+          <t>9504872-S</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -38750,7 +38750,7 @@
       </c>
       <c r="M464" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N464" t="inlineStr">
@@ -38772,7 +38772,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514021</t>
+          <t>9504679-S</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -38830,7 +38830,7 @@
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N465" t="inlineStr">
@@ -38852,7 +38852,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514098</t>
+          <t>9504740</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -38912,7 +38912,7 @@
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N466" t="inlineStr">
@@ -38934,7 +38934,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513537</t>
+          <t>9504353</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -38994,7 +38994,7 @@
       </c>
       <c r="M467" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N467" t="inlineStr">
@@ -39016,7 +39016,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514173</t>
+          <t>9504794-S</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -39076,7 +39076,7 @@
       </c>
       <c r="M468" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N468" t="inlineStr">
@@ -39098,7 +39098,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513539</t>
+          <t>9504355</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -39158,7 +39158,7 @@
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N469" t="inlineStr">
@@ -39180,7 +39180,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512313</t>
+          <t>9503500-2023-1</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -39240,7 +39240,7 @@
       </c>
       <c r="M470" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N470" t="inlineStr">
@@ -39266,7 +39266,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512524</t>
+          <t>9503669</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -39326,7 +39326,7 @@
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N471" t="inlineStr">
@@ -39348,7 +39348,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513915</t>
+          <t>9504620-3</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -39408,7 +39408,7 @@
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N472" t="inlineStr">
@@ -39430,7 +39430,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514009</t>
+          <t>9504671-2</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -39488,7 +39488,7 @@
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N473" t="inlineStr">
@@ -39510,7 +39510,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511828</t>
+          <t>9503208-2023-1</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -39570,7 +39570,7 @@
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t>[13.94-22.05)</t>
+          <t>[14.36-22.72)</t>
         </is>
       </c>
       <c r="N474" t="inlineStr">
@@ -39596,7 +39596,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514056</t>
+          <t>9504703</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -39656,7 +39656,7 @@
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N475" t="inlineStr">
@@ -39678,7 +39678,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514164</t>
+          <t>9504789</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -39738,7 +39738,7 @@
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N476" t="inlineStr">
@@ -39760,7 +39760,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512059</t>
+          <t>9503344</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -39820,7 +39820,7 @@
       </c>
       <c r="M477" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N477" t="inlineStr">
@@ -39842,7 +39842,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514007</t>
+          <t>9504671-S</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -39902,7 +39902,7 @@
       </c>
       <c r="M478" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N478" t="inlineStr">
@@ -39924,7 +39924,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511696</t>
+          <t>9503116-2023-1</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -39984,7 +39984,7 @@
       </c>
       <c r="M479" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N479" t="inlineStr">
@@ -40010,7 +40010,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514014</t>
+          <t>9504673</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -40068,7 +40068,7 @@
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N480" t="inlineStr">
@@ -40090,7 +40090,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513904</t>
+          <t>9504616</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -40150,7 +40150,7 @@
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
@@ -40172,7 +40172,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514083</t>
+          <t>9504722</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -40232,7 +40232,7 @@
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N482" t="inlineStr">
@@ -40254,7 +40254,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514055</t>
+          <t>9504703-S</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -40314,7 +40314,7 @@
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N483" t="inlineStr">
@@ -40336,7 +40336,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512023</t>
+          <t>9503321-1</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -40396,7 +40396,7 @@
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N484" t="inlineStr">
@@ -40418,7 +40418,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514416</t>
+          <t>9505006-1</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -40478,7 +40478,7 @@
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N485" t="inlineStr">
@@ -40500,7 +40500,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513886</t>
+          <t>9504604</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -40558,7 +40558,7 @@
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N486" t="inlineStr">
@@ -40580,7 +40580,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512403</t>
+          <t>9503563-1</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -40640,7 +40640,7 @@
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>[22.05-32.55)</t>
+          <t>[22.72-33.53)</t>
         </is>
       </c>
       <c r="N487" t="inlineStr">
@@ -40662,7 +40662,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514246</t>
+          <t>9505085</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -40722,7 +40722,7 @@
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N488" t="inlineStr">
@@ -40748,7 +40748,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514169</t>
+          <t>9504791-1</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -40808,7 +40808,7 @@
       </c>
       <c r="M489" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N489" t="inlineStr">
@@ -40830,7 +40830,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>M8082S62AD3263514258</t>
+          <t>9504874-1</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -40890,7 +40890,7 @@
       </c>
       <c r="M490" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N490" t="inlineStr">
@@ -40912,7 +40912,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ERBE100614</t>
+          <t>9504991</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -40972,7 +40972,7 @@
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N491" t="inlineStr">
@@ -40998,7 +40998,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510700</t>
+          <t>9504587</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -41058,7 +41058,7 @@
       </c>
       <c r="M492" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N492" t="inlineStr">
@@ -41084,7 +41084,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510322</t>
+          <t>9503395-2023-1</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -41144,7 +41144,7 @@
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N493" t="inlineStr">
@@ -41170,7 +41170,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ERBE102019</t>
+          <t>9504698</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -41230,7 +41230,7 @@
       </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N494" t="inlineStr">
@@ -41256,7 +41256,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511918</t>
+          <t>9504879</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -41316,7 +41316,7 @@
       </c>
       <c r="M495" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N495" t="inlineStr">
@@ -41342,7 +41342,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511924</t>
+          <t>9504823</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -41402,7 +41402,7 @@
       </c>
       <c r="M496" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N496" t="inlineStr">
@@ -41428,7 +41428,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511650</t>
+          <t>9504948</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -41488,7 +41488,7 @@
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N497" t="inlineStr">
@@ -41514,7 +41514,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ERBE102960</t>
+          <t>9504104</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -41574,7 +41574,7 @@
       </c>
       <c r="M498" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N498" t="inlineStr">
@@ -41600,7 +41600,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ERBE100487</t>
+          <t>9504352</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -41660,7 +41660,7 @@
       </c>
       <c r="M499" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N499" t="inlineStr">
@@ -41686,7 +41686,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>M8082S62AD3263509957</t>
+          <t>9504532</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -41746,7 +41746,7 @@
       </c>
       <c r="M500" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N500" t="inlineStr">
@@ -41772,7 +41772,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>M8082S62AD3263512333</t>
+          <t>9504856</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -41832,7 +41832,7 @@
       </c>
       <c r="M501" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N501" t="inlineStr">
@@ -41858,7 +41858,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511552</t>
+          <t>9504469-S</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -41918,7 +41918,7 @@
       </c>
       <c r="M502" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N502" t="inlineStr">
@@ -41944,7 +41944,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ERBE100918</t>
+          <t>9504904</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -42004,7 +42004,7 @@
       </c>
       <c r="M503" t="inlineStr">
         <is>
-          <t>[83.30-16154.82)</t>
+          <t>[85.79-16638.92)</t>
         </is>
       </c>
       <c r="N503" t="inlineStr">
@@ -42030,7 +42030,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510052</t>
+          <t>9504964</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -42112,7 +42112,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511109</t>
+          <t>9504627-3</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -42172,7 +42172,7 @@
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N505" t="inlineStr">
@@ -42198,7 +42198,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ERBE101133</t>
+          <t>9503232-2023-1</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -42258,7 +42258,7 @@
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N506" t="inlineStr">
@@ -42284,7 +42284,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ERBE100980</t>
+          <t>9505051</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -42344,7 +42344,7 @@
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N507" t="inlineStr">
@@ -42370,7 +42370,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513909</t>
+          <t>9504984-2</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -42452,7 +42452,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>M8082S62AD3263509968</t>
+          <t>9504446-S</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -42512,7 +42512,7 @@
       </c>
       <c r="M509" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N509" t="inlineStr">
@@ -42538,7 +42538,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ERBE101997</t>
+          <t>9503202-2023-1</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -42598,7 +42598,7 @@
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N510" t="inlineStr">
@@ -42624,7 +42624,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ERBE102352</t>
+          <t>9504395</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -42684,7 +42684,7 @@
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N511" t="inlineStr">
@@ -42710,7 +42710,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>M8082S62AD3263509969</t>
+          <t>9504446</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -42770,7 +42770,7 @@
       </c>
       <c r="M512" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N512" t="inlineStr">
@@ -42796,7 +42796,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ERBE102150</t>
+          <t>9504755</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -42856,7 +42856,7 @@
       </c>
       <c r="M513" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N513" t="inlineStr">
@@ -42882,7 +42882,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ERBE101590</t>
+          <t>9504660</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -42942,7 +42942,7 @@
       </c>
       <c r="M514" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N514" t="inlineStr">
@@ -42968,7 +42968,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513906</t>
+          <t>9504984-S</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -43048,7 +43048,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ERBE100107</t>
+          <t>9502094-2022-1-1</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -43130,7 +43130,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>M8082S62AD3263510097</t>
+          <t>9501886-2023-1</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -43190,7 +43190,7 @@
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N517" t="inlineStr">
@@ -43216,7 +43216,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511436</t>
+          <t>9504714</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -43276,7 +43276,7 @@
       </c>
       <c r="M518" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N518" t="inlineStr">
@@ -43302,7 +43302,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511223</t>
+          <t>9504352-S</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -43362,7 +43362,7 @@
       </c>
       <c r="M519" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N519" t="inlineStr">
@@ -43388,7 +43388,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511907</t>
+          <t>9504711</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -43448,7 +43448,7 @@
       </c>
       <c r="M520" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N520" t="inlineStr">
@@ -43474,7 +43474,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ERBE102393</t>
+          <t>9505001-3</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -43532,7 +43532,7 @@
       </c>
       <c r="M521" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N521" t="inlineStr">
@@ -43558,7 +43558,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ERBE102406</t>
+          <t>9505001-S</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -43618,7 +43618,7 @@
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N522" t="inlineStr">
@@ -43644,7 +43644,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ERBE100105</t>
+          <t>9502094-2022-1</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -43726,7 +43726,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ERBE102407</t>
+          <t>9505001-2</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -43784,7 +43784,7 @@
       </c>
       <c r="M524" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N524" t="inlineStr">
@@ -43810,7 +43810,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ERBE102802</t>
+          <t>9504466</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -43870,7 +43870,7 @@
       </c>
       <c r="M525" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N525" t="inlineStr">
@@ -43896,7 +43896,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ERBE102391</t>
+          <t>9505001</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -43956,7 +43956,7 @@
       </c>
       <c r="M526" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
       <c r="N526" t="inlineStr">
@@ -43982,7 +43982,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>M8082S62AD3263513452</t>
+          <t>9504703-2</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -44040,7 +44040,7 @@
       </c>
       <c r="M527" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N527" t="inlineStr">
@@ -44066,7 +44066,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511949</t>
+          <t>9504784-S</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -44124,7 +44124,7 @@
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N528" t="inlineStr">
@@ -44150,7 +44150,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511551</t>
+          <t>9504469</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -44208,7 +44208,7 @@
       </c>
       <c r="M529" t="inlineStr">
         <is>
-          <t>[41.64-56.35)</t>
+          <t>[42.89-58.03)</t>
         </is>
       </c>
       <c r="N529" t="inlineStr">
@@ -44234,7 +44234,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>M8082S62AD3263511946</t>
+          <t>9504784</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -44292,7 +44292,7 @@
       </c>
       <c r="M530" t="inlineStr">
         <is>
-          <t>[56.35-83.30)</t>
+          <t>[58.03-85.79)</t>
         </is>
       </c>
       <c r="N530" t="inlineStr">
